--- a/src/test/java/utilities/Sample data.xlsx
+++ b/src/test/java/utilities/Sample data.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gefeyik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gefeyik\IdeaProjects\Hepsiburada\src\test\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6381CED-E39E-4A37-BC05-D4BB6137537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E76E1-C1A1-455C-A7AC-2A90CCAC93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="240" windowWidth="14400" windowHeight="8530" xr2:uid="{D81D6D3E-7B3E-4345-AE70-2B4742508027}"/>
+    <workbookView xWindow="440" yWindow="260" windowWidth="11970" windowHeight="8530" xr2:uid="{D81D6D3E-7B3E-4345-AE70-2B4742508027}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,15 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ddd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Flight1</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Flight2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,18 +409,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49B9E93-0CF8-47E1-8EDC-666393F0D2F4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>